--- a/table_gen.xlsx
+++ b/table_gen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3b4b_table" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="000"/>
-    <numFmt numFmtId="172" formatCode="0000"/>
-    <numFmt numFmtId="173" formatCode="000000"/>
-    <numFmt numFmtId="174" formatCode="00000"/>
+    <numFmt numFmtId="164" formatCode="000"/>
+    <numFmt numFmtId="165" formatCode="0000"/>
+    <numFmt numFmtId="166" formatCode="000000"/>
+    <numFmt numFmtId="167" formatCode="00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -143,27 +143,27 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -597,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H16"/>
     </sheetView>
   </sheetViews>
@@ -629,19 +629,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <f>BIN2DEC(C3)</f>
+        <f t="shared" ref="D3:D16" si="0">BIN2DEC(C3)</f>
         <v>1</v>
       </c>
       <c r="E3" s="3">
         <v>111</v>
       </c>
       <c r="F3" s="6" t="str">
-        <f>BIN2HEX(E3,1)</f>
+        <f t="shared" ref="F3:F16" si="1">BIN2HEX(E3,1)</f>
         <v>7</v>
       </c>
       <c r="H3" t="str">
-        <f>"yTable["&amp;D3&amp;"] = 0x"&amp;F3</f>
-        <v>yTable[1] = 0x7</v>
+        <f>"yDecTable["&amp;D3&amp;"] = 0x"&amp;F3</f>
+        <v>yDecTable[1] = 0x7</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
@@ -649,19 +649,19 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <f>BIN2DEC(C4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E4" s="3">
         <v>100</v>
       </c>
       <c r="F4" s="6" t="str">
-        <f>BIN2HEX(E4,1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H16" si="0">"yTable["&amp;D4&amp;"] = 0x"&amp;F4</f>
-        <v>yTable[2] = 0x4</v>
+        <f t="shared" ref="H4:H16" si="2">"yDecTable["&amp;D4&amp;"] = 0x"&amp;F4</f>
+        <v>yDecTable[2] = 0x4</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
@@ -669,19 +669,19 @@
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <f>BIN2DEC(C5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5" s="3">
         <v>11</v>
       </c>
       <c r="F5" s="6" t="str">
-        <f>BIN2HEX(E5,1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>yTable[3] = 0x3</v>
+        <f t="shared" si="2"/>
+        <v>yDecTable[3] = 0x3</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
@@ -689,19 +689,19 @@
         <v>100</v>
       </c>
       <c r="D6" s="2">
-        <f>BIN2DEC(C6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="str">
-        <f>BIN2HEX(E6,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>yTable[4] = 0x0</v>
+        <f t="shared" si="2"/>
+        <v>yDecTable[4] = 0x0</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
@@ -709,19 +709,19 @@
         <v>101</v>
       </c>
       <c r="D7" s="2">
-        <f>BIN2DEC(C7)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E7" s="3">
         <v>10</v>
       </c>
       <c r="F7" s="6" t="str">
-        <f>BIN2HEX(E7,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>yTable[5] = 0x2</v>
+        <f t="shared" si="2"/>
+        <v>yDecTable[5] = 0x2</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
@@ -729,19 +729,19 @@
         <v>110</v>
       </c>
       <c r="D8" s="2">
-        <f>BIN2DEC(C8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E8" s="3">
         <v>110</v>
       </c>
       <c r="F8" s="6" t="str">
-        <f>BIN2HEX(E8,1)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>yTable[6] = 0x6</v>
+        <f t="shared" si="2"/>
+        <v>yDecTable[6] = 0x6</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
@@ -749,19 +749,19 @@
         <v>111</v>
       </c>
       <c r="D9" s="2">
-        <f>BIN2DEC(C9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E9" s="3">
         <v>111</v>
       </c>
       <c r="F9" s="6" t="str">
-        <f>BIN2HEX(E9,1)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>yTable[7] = 0x7</v>
+        <f t="shared" si="2"/>
+        <v>yDecTable[7] = 0x7</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
@@ -769,19 +769,19 @@
         <v>1000</v>
       </c>
       <c r="D10" s="2">
-        <f>BIN2DEC(C10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>111</v>
       </c>
       <c r="F10" s="6" t="str">
-        <f>BIN2HEX(E10,1)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>yTable[8] = 0x7</v>
+        <f t="shared" si="2"/>
+        <v>yDecTable[8] = 0x7</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
@@ -789,19 +789,19 @@
         <v>1001</v>
       </c>
       <c r="D11" s="2">
-        <f>BIN2DEC(C11)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="6" t="str">
-        <f>BIN2HEX(E11,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>yTable[9] = 0x1</v>
+        <f t="shared" si="2"/>
+        <v>yDecTable[9] = 0x1</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
@@ -809,19 +809,19 @@
         <v>1010</v>
       </c>
       <c r="D12" s="2">
-        <f>BIN2DEC(C12)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E12" s="3">
         <v>101</v>
       </c>
       <c r="F12" s="6" t="str">
-        <f>BIN2HEX(E12,1)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>yTable[10] = 0x5</v>
+        <f t="shared" si="2"/>
+        <v>yDecTable[10] = 0x5</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
@@ -829,19 +829,19 @@
         <v>1011</v>
       </c>
       <c r="D13" s="2">
-        <f>BIN2DEC(C13)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
       <c r="F13" s="6" t="str">
-        <f>BIN2HEX(E13,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>yTable[11] = 0x0</v>
+        <f t="shared" si="2"/>
+        <v>yDecTable[11] = 0x0</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -849,19 +849,19 @@
         <v>1100</v>
       </c>
       <c r="D14" s="2">
-        <f>BIN2DEC(C14)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E14" s="3">
         <v>11</v>
       </c>
       <c r="F14" s="6" t="str">
-        <f>BIN2HEX(E14,1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>yTable[12] = 0x3</v>
+        <f t="shared" si="2"/>
+        <v>yDecTable[12] = 0x3</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
@@ -869,19 +869,19 @@
         <v>1100</v>
       </c>
       <c r="D15" s="2">
-        <f>BIN2DEC(C15)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E15" s="3">
         <v>111</v>
       </c>
       <c r="F15" s="6" t="str">
-        <f>BIN2HEX(E15,1)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>yTable[12] = 0x7</v>
+        <f t="shared" si="2"/>
+        <v>yDecTable[12] = 0x7</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
@@ -889,19 +889,19 @@
         <v>1101</v>
       </c>
       <c r="D16" s="2">
-        <f>BIN2DEC(C16)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="E16" s="3">
         <v>100</v>
       </c>
       <c r="F16" s="6" t="str">
-        <f>BIN2HEX(E16,1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>yTable[13] = 0x4</v>
+        <f t="shared" si="2"/>
+        <v>yDecTable[13] = 0x4</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I7" sqref="I7:I52"/>
     </sheetView>
   </sheetViews>
@@ -1404,19 +1404,19 @@
         <v>101</v>
       </c>
       <c r="E7" s="2">
-        <f>BIN2DEC(D7)</f>
+        <f t="shared" ref="E7:E52" si="0">BIN2DEC(D7)</f>
         <v>5</v>
       </c>
       <c r="F7" s="11">
         <v>10111</v>
       </c>
       <c r="G7" s="6" t="str">
-        <f>BIN2HEX(F7,2)</f>
+        <f t="shared" ref="G7:G52" si="1">BIN2HEX(F7,2)</f>
         <v>17</v>
       </c>
       <c r="I7" t="str">
-        <f>"xTable["&amp;E7&amp;"] = 0x"&amp;G7</f>
-        <v>xTable[5] = 0x17</v>
+        <f>"xDecTable["&amp;E7&amp;"] = 0x"&amp;G7</f>
+        <v>xDecTable[5] = 0x17</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.25">
@@ -1424,19 +1424,19 @@
         <v>110</v>
       </c>
       <c r="E8" s="2">
-        <f>BIN2DEC(D8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F8" s="11">
         <v>1000</v>
       </c>
       <c r="G8" s="6" t="str">
-        <f>BIN2HEX(F8,2)</f>
+        <f t="shared" si="1"/>
         <v>08</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" ref="I8:I51" si="0">"xTable["&amp;E8&amp;"] = 0x"&amp;G8</f>
-        <v>xTable[6] = 0x08</v>
+        <f t="shared" ref="I8:I52" si="2">"xDecTable["&amp;E8&amp;"] = 0x"&amp;G8</f>
+        <v>xDecTable[6] = 0x08</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.25">
@@ -1444,19 +1444,19 @@
         <v>111</v>
       </c>
       <c r="E9" s="2">
-        <f>BIN2DEC(D9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F9" s="11">
         <v>111</v>
       </c>
       <c r="G9" s="6" t="str">
-        <f>BIN2HEX(F9,2)</f>
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[7] = 0x07</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[7] = 0x07</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.25">
@@ -1464,19 +1464,19 @@
         <v>1001</v>
       </c>
       <c r="E10" s="2">
-        <f>BIN2DEC(D10)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F10" s="11">
         <v>11011</v>
       </c>
       <c r="G10" s="6" t="str">
-        <f>BIN2HEX(F10,2)</f>
+        <f t="shared" si="1"/>
         <v>1B</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[9] = 0x1B</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[9] = 0x1B</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
@@ -1484,19 +1484,19 @@
         <v>1010</v>
       </c>
       <c r="E11" s="2">
-        <f>BIN2DEC(D11)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F11" s="11">
         <v>100</v>
       </c>
       <c r="G11" s="6" t="str">
-        <f>BIN2HEX(F11,2)</f>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[10] = 0x04</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[10] = 0x04</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.25">
@@ -1504,19 +1504,19 @@
         <v>1011</v>
       </c>
       <c r="E12" s="2">
-        <f>BIN2DEC(D12)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F12" s="11">
         <v>10100</v>
       </c>
       <c r="G12" s="6" t="str">
-        <f>BIN2HEX(F12,2)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[11] = 0x14</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[11] = 0x14</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.25">
@@ -1524,19 +1524,19 @@
         <v>1100</v>
       </c>
       <c r="E13" s="2">
-        <f>BIN2DEC(D13)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F13" s="11">
         <v>11000</v>
       </c>
       <c r="G13" s="6" t="str">
-        <f>BIN2HEX(F13,2)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[12] = 0x18</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[12] = 0x18</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.25">
@@ -1544,19 +1544,19 @@
         <v>1101</v>
       </c>
       <c r="E14" s="2">
-        <f>BIN2DEC(D14)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F14" s="11">
         <v>1100</v>
       </c>
       <c r="G14" s="6" t="str">
-        <f>BIN2HEX(F14,2)</f>
+        <f t="shared" si="1"/>
         <v>0C</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[13] = 0x0C</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[13] = 0x0C</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.25">
@@ -1564,19 +1564,19 @@
         <v>1110</v>
       </c>
       <c r="E15" s="2">
-        <f>BIN2DEC(D15)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F15" s="11">
         <v>11100</v>
       </c>
       <c r="G15" s="6" t="str">
-        <f>BIN2HEX(F15,2)</f>
+        <f t="shared" si="1"/>
         <v>1C</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[14] = 0x1C</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[14] = 0x1C</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.25">
@@ -1584,19 +1584,19 @@
         <v>10001</v>
       </c>
       <c r="E16" s="2">
-        <f>BIN2DEC(D16)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F16" s="11">
         <v>11101</v>
       </c>
       <c r="G16" s="6" t="str">
-        <f>BIN2HEX(F16,2)</f>
+        <f t="shared" si="1"/>
         <v>1D</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[17] = 0x1D</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[17] = 0x1D</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
@@ -1604,19 +1604,19 @@
         <v>10010</v>
       </c>
       <c r="E17" s="2">
-        <f>BIN2DEC(D17)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F17" s="11">
         <v>10</v>
       </c>
       <c r="G17" s="6" t="str">
-        <f>BIN2HEX(F17,2)</f>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[18] = 0x02</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[18] = 0x02</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
@@ -1624,19 +1624,19 @@
         <v>10011</v>
       </c>
       <c r="E18" s="2">
-        <f>BIN2DEC(D18)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F18" s="11">
         <v>10010</v>
       </c>
       <c r="G18" s="6" t="str">
-        <f>BIN2HEX(F18,2)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[19] = 0x12</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[19] = 0x12</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
@@ -1644,19 +1644,19 @@
         <v>10100</v>
       </c>
       <c r="E19" s="2">
-        <f>BIN2DEC(D19)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F19" s="11">
         <v>11111</v>
       </c>
       <c r="G19" s="6" t="str">
-        <f>BIN2HEX(F19,2)</f>
+        <f t="shared" si="1"/>
         <v>1F</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[20] = 0x1F</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[20] = 0x1F</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
@@ -1664,19 +1664,19 @@
         <v>10101</v>
       </c>
       <c r="E20" s="2">
-        <f>BIN2DEC(D20)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F20" s="11">
         <v>1010</v>
       </c>
       <c r="G20" s="6" t="str">
-        <f>BIN2HEX(F20,2)</f>
+        <f t="shared" si="1"/>
         <v>0A</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[21] = 0x0A</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[21] = 0x0A</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
@@ -1684,19 +1684,19 @@
         <v>10110</v>
       </c>
       <c r="E21" s="2">
-        <f>BIN2DEC(D21)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="F21" s="11">
         <v>11010</v>
       </c>
       <c r="G21" s="6" t="str">
-        <f>BIN2HEX(F21,2)</f>
+        <f t="shared" si="1"/>
         <v>1A</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[22] = 0x1A</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[22] = 0x1A</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
@@ -1704,19 +1704,19 @@
         <v>10111</v>
       </c>
       <c r="E22" s="2">
-        <f>BIN2DEC(D22)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F22" s="11">
         <v>1111</v>
       </c>
       <c r="G22" s="6" t="str">
-        <f>BIN2HEX(F22,2)</f>
+        <f t="shared" si="1"/>
         <v>0F</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[23] = 0x0F</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[23] = 0x0F</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
@@ -1724,19 +1724,19 @@
         <v>11000</v>
       </c>
       <c r="E23" s="2">
-        <f>BIN2DEC(D23)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
       </c>
       <c r="G23" s="6" t="str">
-        <f>BIN2HEX(F23,2)</f>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[24] = 0x00</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[24] = 0x00</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
@@ -1744,19 +1744,19 @@
         <v>11001</v>
       </c>
       <c r="E24" s="2">
-        <f>BIN2DEC(D24)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F24" s="11">
         <v>110</v>
       </c>
       <c r="G24" s="6" t="str">
-        <f>BIN2HEX(F24,2)</f>
+        <f t="shared" si="1"/>
         <v>06</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[25] = 0x06</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[25] = 0x06</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
@@ -1764,19 +1764,19 @@
         <v>11010</v>
       </c>
       <c r="E25" s="2">
-        <f>BIN2DEC(D25)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="F25" s="11">
         <v>10110</v>
       </c>
       <c r="G25" s="6" t="str">
-        <f>BIN2HEX(F25,2)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[26] = 0x16</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[26] = 0x16</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
@@ -1784,19 +1784,19 @@
         <v>11011</v>
       </c>
       <c r="E26" s="2">
-        <f>BIN2DEC(D26)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="F26" s="11">
         <v>10000</v>
       </c>
       <c r="G26" s="6" t="str">
-        <f>BIN2HEX(F26,2)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[27] = 0x10</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[27] = 0x10</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
@@ -1804,19 +1804,19 @@
         <v>11100</v>
       </c>
       <c r="E27" s="2">
-        <f>BIN2DEC(D27)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F27" s="11">
         <v>1110</v>
       </c>
       <c r="G27" s="6" t="str">
-        <f>BIN2HEX(F27,2)</f>
+        <f t="shared" si="1"/>
         <v>0E</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[28] = 0x0E</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[28] = 0x0E</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
@@ -1824,19 +1824,19 @@
         <v>11101</v>
       </c>
       <c r="E28" s="2">
-        <f>BIN2DEC(D28)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="F28" s="11">
         <v>1</v>
       </c>
       <c r="G28" s="6" t="str">
-        <f>BIN2HEX(F28,2)</f>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[29] = 0x01</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[29] = 0x01</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.25">
@@ -1844,19 +1844,19 @@
         <v>11110</v>
       </c>
       <c r="E29" s="2">
-        <f>BIN2DEC(D29)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F29" s="11">
         <v>11110</v>
       </c>
       <c r="G29" s="6" t="str">
-        <f>BIN2HEX(F29,2)</f>
+        <f t="shared" si="1"/>
         <v>1E</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[30] = 0x1E</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[30] = 0x1E</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
@@ -1864,19 +1864,19 @@
         <v>100001</v>
       </c>
       <c r="E30" s="2">
-        <f>BIN2DEC(D30)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="F30" s="11">
         <v>11110</v>
       </c>
       <c r="G30" s="6" t="str">
-        <f>BIN2HEX(F30,2)</f>
+        <f t="shared" si="1"/>
         <v>1E</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[33] = 0x1E</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[33] = 0x1E</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
@@ -1884,19 +1884,19 @@
         <v>100010</v>
       </c>
       <c r="E31" s="2">
-        <f>BIN2DEC(D31)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="F31" s="11">
         <v>1</v>
       </c>
       <c r="G31" s="6" t="str">
-        <f>BIN2HEX(F31,2)</f>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[34] = 0x01</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[34] = 0x01</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.25">
@@ -1904,19 +1904,19 @@
         <v>100011</v>
       </c>
       <c r="E32" s="2">
-        <f>BIN2DEC(D32)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F32" s="11">
         <v>10001</v>
       </c>
       <c r="G32" s="6" t="str">
-        <f>BIN2HEX(F32,2)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[35] = 0x11</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[35] = 0x11</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
@@ -1924,19 +1924,19 @@
         <v>100100</v>
       </c>
       <c r="E33" s="2">
-        <f>BIN2DEC(D33)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F33" s="11">
         <v>10000</v>
       </c>
       <c r="G33" s="6" t="str">
-        <f>BIN2HEX(F33,2)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[36] = 0x10</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[36] = 0x10</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
@@ -1944,19 +1944,19 @@
         <v>100101</v>
       </c>
       <c r="E34" s="2">
-        <f>BIN2DEC(D34)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="F34" s="11">
         <v>1001</v>
       </c>
       <c r="G34" s="6" t="str">
-        <f>BIN2HEX(F34,2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[37] = 0x09</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[37] = 0x09</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
@@ -1964,19 +1964,19 @@
         <v>100110</v>
       </c>
       <c r="E35" s="2">
-        <f>BIN2DEC(D35)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="F35" s="11">
         <v>11001</v>
       </c>
       <c r="G35" s="6" t="str">
-        <f>BIN2HEX(F35,2)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[38] = 0x19</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[38] = 0x19</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
@@ -1984,19 +1984,19 @@
         <v>100111</v>
       </c>
       <c r="E36" s="2">
-        <f>BIN2DEC(D36)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="F36" s="11">
         <v>0</v>
       </c>
       <c r="G36" s="6" t="str">
-        <f>BIN2HEX(F36,2)</f>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[39] = 0x00</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[39] = 0x00</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
@@ -2004,19 +2004,19 @@
         <v>101000</v>
       </c>
       <c r="E37" s="2">
-        <f>BIN2DEC(D37)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="F37" s="11">
         <v>1111</v>
       </c>
       <c r="G37" s="6" t="str">
-        <f>BIN2HEX(F37,2)</f>
+        <f t="shared" si="1"/>
         <v>0F</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[40] = 0x0F</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[40] = 0x0F</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
@@ -2024,19 +2024,19 @@
         <v>101001</v>
       </c>
       <c r="E38" s="2">
-        <f>BIN2DEC(D38)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="F38" s="11">
         <v>101</v>
       </c>
       <c r="G38" s="6" t="str">
-        <f>BIN2HEX(F38,2)</f>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[41] = 0x05</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[41] = 0x05</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
@@ -2044,19 +2044,19 @@
         <v>101010</v>
       </c>
       <c r="E39" s="2">
-        <f>BIN2DEC(D39)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="F39" s="11">
         <v>10101</v>
       </c>
       <c r="G39" s="6" t="str">
-        <f>BIN2HEX(F39,2)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[42] = 0x15</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[42] = 0x15</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
@@ -2064,19 +2064,19 @@
         <v>101011</v>
       </c>
       <c r="E40" s="2">
-        <f>BIN2DEC(D40)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="F40" s="11">
         <v>11111</v>
       </c>
       <c r="G40" s="6" t="str">
-        <f>BIN2HEX(F40,2)</f>
+        <f t="shared" si="1"/>
         <v>1F</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[43] = 0x1F</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[43] = 0x1F</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
@@ -2084,19 +2084,19 @@
         <v>101100</v>
       </c>
       <c r="E41" s="2">
-        <f>BIN2DEC(D41)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="F41" s="11">
         <v>1101</v>
       </c>
       <c r="G41" s="6" t="str">
-        <f>BIN2HEX(F41,2)</f>
+        <f t="shared" si="1"/>
         <v>0D</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[44] = 0x0D</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[44] = 0x0D</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
@@ -2104,19 +2104,19 @@
         <v>101101</v>
       </c>
       <c r="E42" s="2">
-        <f>BIN2DEC(D42)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F42" s="11">
         <v>10</v>
       </c>
       <c r="G42" s="6" t="str">
-        <f>BIN2HEX(F42,2)</f>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[45] = 0x02</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[45] = 0x02</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
@@ -2124,19 +2124,19 @@
         <v>101110</v>
       </c>
       <c r="E43" s="2">
-        <f>BIN2DEC(D43)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="F43" s="11">
         <v>11101</v>
       </c>
       <c r="G43" s="6" t="str">
-        <f>BIN2HEX(F43,2)</f>
+        <f t="shared" si="1"/>
         <v>1D</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[46] = 0x1D</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[46] = 0x1D</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
@@ -2144,19 +2144,19 @@
         <v>110001</v>
       </c>
       <c r="E44" s="2">
-        <f>BIN2DEC(D44)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="F44" s="11">
         <v>11</v>
       </c>
       <c r="G44" s="6" t="str">
-        <f>BIN2HEX(F44,2)</f>
+        <f t="shared" si="1"/>
         <v>03</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[49] = 0x03</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[49] = 0x03</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
@@ -2164,19 +2164,19 @@
         <v>110010</v>
       </c>
       <c r="E45" s="2">
-        <f>BIN2DEC(D45)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F45" s="11">
         <v>10011</v>
       </c>
       <c r="G45" s="6" t="str">
-        <f>BIN2HEX(F45,2)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[50] = 0x13</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[50] = 0x13</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
@@ -2184,19 +2184,19 @@
         <v>110011</v>
       </c>
       <c r="E46" s="2">
-        <f>BIN2DEC(D46)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="F46" s="11">
         <v>11000</v>
       </c>
       <c r="G46" s="6" t="str">
-        <f>BIN2HEX(F46,2)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[51] = 0x18</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[51] = 0x18</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
@@ -2204,19 +2204,19 @@
         <v>110100</v>
       </c>
       <c r="E47" s="2">
-        <f>BIN2DEC(D47)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="F47" s="11">
         <v>1011</v>
       </c>
       <c r="G47" s="6" t="str">
-        <f>BIN2HEX(F47,2)</f>
+        <f t="shared" si="1"/>
         <v>0B</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[52] = 0x0B</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[52] = 0x0B</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
@@ -2224,19 +2224,19 @@
         <v>110101</v>
       </c>
       <c r="E48" s="2">
-        <f>BIN2DEC(D48)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="F48" s="11">
         <v>100</v>
       </c>
       <c r="G48" s="6" t="str">
-        <f>BIN2HEX(F48,2)</f>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[53] = 0x04</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[53] = 0x04</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.25">
@@ -2244,19 +2244,19 @@
         <v>110110</v>
       </c>
       <c r="E49" s="2">
-        <f>BIN2DEC(D49)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="F49" s="11">
         <v>11011</v>
       </c>
       <c r="G49" s="6" t="str">
-        <f>BIN2HEX(F49,2)</f>
+        <f t="shared" si="1"/>
         <v>1B</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[54] = 0x1B</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[54] = 0x1B</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.25">
@@ -2264,19 +2264,19 @@
         <v>111000</v>
       </c>
       <c r="E50" s="2">
-        <f>BIN2DEC(D50)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="F50" s="11">
         <v>111</v>
       </c>
       <c r="G50" s="6" t="str">
-        <f>BIN2HEX(F50,2)</f>
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[56] = 0x07</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[56] = 0x07</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.25">
@@ -2284,19 +2284,19 @@
         <v>111001</v>
       </c>
       <c r="E51" s="2">
-        <f>BIN2DEC(D51)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="F51" s="11">
         <v>1000</v>
       </c>
       <c r="G51" s="6" t="str">
-        <f>BIN2HEX(F51,2)</f>
+        <f t="shared" si="1"/>
         <v>08</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="0"/>
-        <v>xTable[57] = 0x08</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[57] = 0x08</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.25">
@@ -2304,19 +2304,19 @@
         <v>111010</v>
       </c>
       <c r="E52" s="2">
-        <f>BIN2DEC(D52)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="F52" s="11">
         <v>10111</v>
       </c>
       <c r="G52" s="6" t="str">
-        <f>BIN2HEX(F52,2)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I52" t="str">
-        <f>"xTable["&amp;E52&amp;"] = 0x"&amp;G52</f>
-        <v>xTable[58] = 0x17</v>
+        <f t="shared" si="2"/>
+        <v>xDecTable[58] = 0x17</v>
       </c>
     </row>
   </sheetData>
